--- a/examples/Canada OGD/goods and services/counters_summary.xlsx
+++ b/examples/Canada OGD/goods and services/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Canada OGD/goods and services/counters_summary.xlsx
+++ b/examples/Canada OGD/goods and services/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -456,17 +481,17 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -483,6 +508,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -493,7 +533,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -526,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -535,6 +575,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,7 +600,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -578,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -587,6 +642,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -597,7 +667,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -612,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -639,6 +709,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -649,7 +734,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -682,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -691,6 +776,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,7 +801,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -734,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -743,6 +843,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,7 +868,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -786,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -795,6 +910,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -805,7 +935,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -838,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -847,6 +977,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/examples/Canada OGD/goods and services/counters_summary.xlsx
+++ b/examples/Canada OGD/goods and services/counters_summary.xlsx
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.000202</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.000202</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.000202</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.000202</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001</v>
+        <v>0.00121</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.000202</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.000202</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.000202</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.000202</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
